--- a/revisao2.xlsx
+++ b/revisao2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Novo Lar\Atividades\Excel\Aula15 - Revisão\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BF80F2-F19D-447C-8FBE-7E21A83CF040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BAF71A-1316-4F27-8C00-7FE3091AEB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formatação e cálculos" sheetId="1" r:id="rId1"/>
@@ -1150,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,7 +1434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
